--- a/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
+++ b/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanoritakahashi/Documents/講義/ゼミ/M2/空間生存時間/COVID-19/分析/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFC902-B779-4C4D-A353-414D1C5DC35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B9314-941A-4648-A7B6-89BD435C8A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{87E06233-D7B9-0142-806D-7B628B60AF17}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{87E06233-D7B9-0142-806D-7B628B60AF17}"/>
   </bookViews>
   <sheets>
     <sheet name="k=4" sheetId="1" r:id="rId1"/>
     <sheet name="k=4(lognormal)" sheetId="4" r:id="rId2"/>
-    <sheet name="k=3(2)" sheetId="3" r:id="rId3"/>
-    <sheet name="k=3(ワイブル)" sheetId="2" r:id="rId4"/>
+    <sheet name="k=4(lognormal変数選択)" sheetId="5" r:id="rId3"/>
+    <sheet name="k=3(2)" sheetId="3" r:id="rId4"/>
+    <sheet name="k=3(ワイブル)" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="58">
   <si>
     <t>shape</t>
   </si>
@@ -249,6 +250,18 @@
   </si>
   <si>
     <t>AIC=284.702767651595</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=303.967546047529</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=252.270963488439</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=265.00298853269</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2711,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECD7360-CFBE-DB4F-AB7A-83865E23D220}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -3404,6 +3417,562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F885542E-B659-9D4D-B14C-D83AEE3475B4}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>3.7751999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="D3">
+        <v>5.57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.6000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D4">
+        <v>-3.29</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-3.3500000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D5">
+        <v>-1.5</v>
+      </c>
+      <c r="E5">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-0.1288</v>
+      </c>
+      <c r="C6">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.1293</v>
+      </c>
+      <c r="C7">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.97</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-4.5600000000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>-2.5718999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.1031</v>
+      </c>
+      <c r="D9">
+        <v>-24.94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>9.2153100000000006</v>
+      </c>
+      <c r="C15">
+        <v>1.4553</v>
+      </c>
+      <c r="D15">
+        <v>6.33</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>-0.21389</v>
+      </c>
+      <c r="C16">
+        <v>0.11346000000000001</v>
+      </c>
+      <c r="D16">
+        <v>-1.89</v>
+      </c>
+      <c r="E16">
+        <v>5.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>-2.6100000000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.634E-2</v>
+      </c>
+      <c r="D17">
+        <v>-1.6</v>
+      </c>
+      <c r="E17">
+        <v>0.1103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.164E-2</v>
+      </c>
+      <c r="D18">
+        <v>-1.44</v>
+      </c>
+      <c r="E18">
+        <v>0.1507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>-0.23022999999999999</v>
+      </c>
+      <c r="C19">
+        <v>8.5739999999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>-2.69</v>
+      </c>
+      <c r="E19">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>-1.8870000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>8.7399999999999995E-3</v>
+      </c>
+      <c r="D20">
+        <v>-2.16</v>
+      </c>
+      <c r="E20">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>-2.4715600000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.11785</v>
+      </c>
+      <c r="D21">
+        <v>-20.97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1.0218</v>
+      </c>
+      <c r="C26">
+        <v>1.165</v>
+      </c>
+      <c r="D26">
+        <v>0.88</v>
+      </c>
+      <c r="E26">
+        <v>0.38044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.1615</v>
+      </c>
+      <c r="C27">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="D27">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E27">
+        <v>1.1339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.1757</v>
+      </c>
+      <c r="D28">
+        <v>3.73</v>
+      </c>
+      <c r="E28">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>-0.2676</v>
+      </c>
+      <c r="C29">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>-4.45</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8.3999999999999992E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>-1.0729</v>
+      </c>
+      <c r="C30">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="D30">
+        <v>-8.31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>8.9997000000000007</v>
+      </c>
+      <c r="C37">
+        <v>2.3166000000000002</v>
+      </c>
+      <c r="D37">
+        <v>3.88</v>
+      </c>
+      <c r="E37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>-1.8165</v>
+      </c>
+      <c r="C38">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="D38">
+        <v>-3.73</v>
+      </c>
+      <c r="E38">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>-0.20039999999999999</v>
+      </c>
+      <c r="C39">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="D39">
+        <v>-6.25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.0999999999999998E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>-0.8276</v>
+      </c>
+      <c r="C40">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D40">
+        <v>-3.67</v>
+      </c>
+      <c r="E40">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>0.4093</v>
+      </c>
+      <c r="C41">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D41">
+        <v>4.93</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8.2999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>-0.2185</v>
+      </c>
+      <c r="C42">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="D42">
+        <v>-1.66</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9.6579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>-1.6227</v>
+      </c>
+      <c r="C43">
+        <v>0.1162</v>
+      </c>
+      <c r="D43">
+        <v>-13.96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1"/>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD435C-AFE9-1744-A894-D546651D5B0A}">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -5381,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB0DE13-85DD-794B-8472-590DED143ECE}">
   <dimension ref="A1:G35"/>
   <sheetViews>

--- a/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
+++ b/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanoritakahashi/Documents/講義/ゼミ/M2/空間生存時間/COVID-19/分析/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B9314-941A-4648-A7B6-89BD435C8A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5CBC0-5B2D-9A48-9B76-C20242CE1BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{87E06233-D7B9-0142-806D-7B628B60AF17}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5" xr2:uid="{87E06233-D7B9-0142-806D-7B628B60AF17}"/>
   </bookViews>
   <sheets>
     <sheet name="k=4" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="k=4(lognormal変数選択)" sheetId="5" r:id="rId3"/>
     <sheet name="k=3(2)" sheetId="3" r:id="rId4"/>
     <sheet name="k=3(ワイブル)" sheetId="2" r:id="rId5"/>
+    <sheet name="k=3(ワイブル変数選択) " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="61">
   <si>
     <t>shape</t>
   </si>
@@ -262,6 +263,18 @@
   </si>
   <si>
     <t>AIC=265.00298853269</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=380.099257204498</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=310.685813896612</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIC=485.581438954928</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3420,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F885542E-B659-9D4D-B14C-D83AEE3475B4}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6493,4 +6506,431 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EAC1A-4419-C44E-95FA-3B6DF3806845}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.5349000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="D3">
+        <v>11.83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-0.32869999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.1404</v>
+      </c>
+      <c r="D4">
+        <v>-2.34</v>
+      </c>
+      <c r="E4">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="E5">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>-3.11</v>
+      </c>
+      <c r="E6">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>-2.0072000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.1227</v>
+      </c>
+      <c r="D7">
+        <v>-16.36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="D15">
+        <v>5.38</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.3000000000000005E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>-4.7300000000000002E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>-3</v>
+      </c>
+      <c r="E16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>-5.9299999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.69E-2</v>
+      </c>
+      <c r="D17">
+        <v>-2.21</v>
+      </c>
+      <c r="E17">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.1069</v>
+      </c>
+      <c r="C18">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.04</v>
+      </c>
+      <c r="E18">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>-2.3595999999999999</v>
+      </c>
+      <c r="C19">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="D19">
+        <v>-24.06</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>6.6058000000000003</v>
+      </c>
+      <c r="C27">
+        <v>1.5168999999999999</v>
+      </c>
+      <c r="D27">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>-0.78049999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="D28">
+        <v>-2.15</v>
+      </c>
+      <c r="E28">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D29">
+        <v>-1.65</v>
+      </c>
+      <c r="E29">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>-0.3705</v>
+      </c>
+      <c r="C30">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="D30">
+        <v>-1.64</v>
+      </c>
+      <c r="E30">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C31">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.14</v>
+      </c>
+      <c r="E31">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>-6.5799999999999997E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>-2</v>
+      </c>
+      <c r="E32">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>-0.21060000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.1164</v>
+      </c>
+      <c r="D33">
+        <v>-1.81</v>
+      </c>
+      <c r="E33">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>-1.3562000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.106</v>
+      </c>
+      <c r="D34">
+        <v>-12.8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
+++ b/分析/K-means_重力モデルを用いたCOVID-19が到達するまでの時間に関する分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanoritakahashi/Documents/講義/ゼミ/M2/空間生存時間/COVID-19/分析/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5CBC0-5B2D-9A48-9B76-C20242CE1BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCFC5B-4DE7-324B-BAA9-6E424843FD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5" xr2:uid="{87E06233-D7B9-0142-806D-7B628B60AF17}"/>
   </bookViews>
